--- a/sd_update-main-ci-build/ig/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/sd_update-main-ci-build/ig/StructureDefinition-ror-confidentiality-level.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:16:50+00:00</t>
+    <t>2024-05-23T13:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd_update-main-ci-build/ig/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/sd_update-main-ci-build/ig/StructureDefinition-ror-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:58:12+00:00</t>
+    <t>2024-05-23T14:19:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd_update-main-ci-build/ig/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/sd_update-main-ci-build/ig/StructureDefinition-ror-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:19:59+00:00</t>
+    <t>2024-05-23T14:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
